--- a/Ozrit HR data/ozrit/Daily updates for hr_.xlsx
+++ b/Ozrit HR data/ozrit/Daily updates for hr_.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pixld\Downloads\ozrit\Ozrit HR data\ozrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F99963-657A-4798-AE96-22DAF4B91F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,12 @@
     <sheet name="Salary sheet " sheetId="3" r:id="rId3"/>
     <sheet name="Updates " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="622">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1101,31 +1102,859 @@
     <t xml:space="preserve">employees , attendance and Linkedin posting and updates </t>
   </si>
   <si>
-    <t>2.-7.2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">inteerview for 3 people DM ,only one selected varsha . She rejected the Stipend 5k </t>
   </si>
   <si>
-    <t>3.7.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hr - unpaid internship , she will update </t>
-  </si>
-  <si>
-    <t xml:space="preserve">did telephonic round , scheduled the interview for next Days </t>
+    <t>28.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 scheduling the interviews </t>
+  </si>
+  <si>
+    <t>telehonic ruoudn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared the salary incremnet letter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">done the interviews with vshwanth for digital marketing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparing for the aggrement , policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deemart things listing </t>
+  </si>
+  <si>
+    <t>4.07.2025</t>
+  </si>
+  <si>
+    <t>03.06.2025</t>
+  </si>
+  <si>
+    <t>04.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chari birthday celebration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance calculation for the interns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital marketing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casual leave </t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>108-003-0725-01</t>
+  </si>
+  <si>
+    <t>108- department code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003- SR code </t>
+  </si>
+  <si>
+    <t>0725-month&amp;year code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01- holiday code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emergency leave </t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>medical leave</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>floating holiday</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">half day leave </t>
+  </si>
+  <si>
+    <t>2hrs permission</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet </t>
+  </si>
+  <si>
+    <t>108-002-0725-08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>108-002-0725-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>29.07.2025</t>
+  </si>
+  <si>
+    <t>follow up with the old scheduled interviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have discussed for timesheet with interns and team to collect the 2 months updated timesheet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordinated with the surya for 1st round , and vishwa for dm 2nd round </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephonic round for dm candidates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinated with yuvakiran and anvesh for fulls tack developer interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gathering all the timesheet and adding in folders of employees </t>
+  </si>
+  <si>
+    <t>02.06.2025</t>
+  </si>
+  <si>
+    <t>108-003-0625-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacted sales team for changing the name on just dial did the follow ups atleast 5 to 6 times via mail and </t>
+  </si>
+  <si>
+    <t>parking allocation with the BMS team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full day on PF activation data collection with the team and contacted the CA team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent mail </t>
+  </si>
+  <si>
+    <t>05.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed salary hike letter with the vivek sir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">intiated the education verification but it failed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow up with the team for time sheet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">crm updates for the month of may </t>
+  </si>
+  <si>
+    <t>06.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drafted the pavan verification mail and did the background verification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again worked on the PF documents from the team </t>
+  </si>
+  <si>
+    <t>07.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did the maestro certification duration 2 hrs spent on the certification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated the payslip for the 3 months of sandeep sir and sent him </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hr - game </t>
+  </si>
+  <si>
+    <t>08.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunday </t>
+  </si>
+  <si>
+    <t>09.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reached out to the people who have taken unapproved leave and to inform that they have to be in the office on Monday as 7 people were on leave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">added the esi details , collected from the employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">its done </t>
+  </si>
+  <si>
+    <t>10.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination for the employees for poor performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussing with management regarding termination or performance about team </t>
+  </si>
+  <si>
+    <t>11.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsilation of the month of march and april as amount taken from sandeep sir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared expenses tracker </t>
+  </si>
+  <si>
+    <t>12.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrolled the offer letter to new employees </t>
+  </si>
+  <si>
+    <t>worked on expenses sheet with vivek sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination for 5 employees from sales team based upon their performance </t>
+  </si>
+  <si>
+    <t>13.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preeparing appointmenet letter for the 3 employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">demart listing </t>
+  </si>
+  <si>
+    <t>14.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posh certification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">termination mail to the employees for their attendance </t>
+  </si>
+  <si>
+    <t>15.06.2025</t>
+  </si>
+  <si>
+    <t>16.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin works </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on employees folder for creating the data , adding the data bank account , address and co ordinated </t>
+  </si>
+  <si>
+    <t>17.6.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108-003-0625-03 medical leave for the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sick leave </t>
+  </si>
+  <si>
+    <t>18.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked with vivek sir gather the documents of sandya, satwika and other employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent the fnf to them and collected their BGV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">working details dtae and other things </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent FNF to the left employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment letter to 3 cnadidates </t>
+  </si>
+  <si>
+    <t>19.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on BGV policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent mail to remaining people for settlement , mounika and jyothi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">settled amount In expenses from vivek sir account , sandeep sir and bharath sir </t>
+  </si>
+  <si>
+    <t>20.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on settlement for the krishna and jayanth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">had a brief conversation with the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent mail to the employees for salary dedctions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare the attendance sheet </t>
+  </si>
+  <si>
+    <t>21.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary dedctions to 10 employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed the attendance shortage with the employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared the paysheet </t>
+  </si>
+  <si>
+    <t>22.06.2025</t>
+  </si>
+  <si>
+    <t>discussion and confirmation for the salary increment letter to the employees</t>
+  </si>
+  <si>
+    <t>24.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documents for PF </t>
+  </si>
+  <si>
+    <t>sent appointment letter and incrmenet letter</t>
+  </si>
+  <si>
+    <t>25.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared experience letter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and fnf for samreen and manoj </t>
+  </si>
+  <si>
+    <t>26.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed with the employees for leave intimation and attendance mandotory </t>
+  </si>
+  <si>
+    <t>27.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed with balaji and vivek sir for salary increment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on fnf issue </t>
+  </si>
+  <si>
+    <t>28.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co or dinated with the CA employee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">got the insurance number and forwarded to employees and helped them </t>
+  </si>
+  <si>
+    <t>29.06.2025</t>
+  </si>
+  <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have spoken regarding delay of the month salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordianted with the CA for documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinated with vivek sir to work on department names and codes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">collected al the documents to submit on Barkatpura branch and handed over to vishwa </t>
+  </si>
+  <si>
+    <t>01.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on job posting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">invitation and telephonic round for internship , mailed the link and details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion with vishwanth for being late for the whole month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuva kiran for unplanned leave and late comingn </t>
+  </si>
+  <si>
+    <t>02.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow up with the candidates from yesterdays scheduled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on zoho payroll for sending the payslip </t>
+  </si>
+  <si>
+    <t>everyone rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shortlisted cnadidates from variouse job portals </t>
+  </si>
+  <si>
+    <t>03.07.2025</t>
+  </si>
+  <si>
+    <t>DM candidates scheduling the interview n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailed to vishwa and chari and discussed them for their shortage of attendance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken telephonic round for the shorlisted candidates and invitaed them for interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordianted with the nupur for cloud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordianted with CA anjali to pay the april month esi amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken the interview for the DM </t>
+  </si>
+  <si>
+    <t>30.07.2025</t>
+  </si>
+  <si>
+    <t>9;30 to 9;45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for surya </t>
+  </si>
+  <si>
+    <t>9;45TO10;20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTENDANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10;20 to 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephonic round for angular  candidates </t>
+  </si>
+  <si>
+    <t>11;00to 11;15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordinated with kumar for interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 to 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduled the interview virtual rounds for the angular developer </t>
+  </si>
+  <si>
+    <t>scheduled the interview virtual rounds for the angular developer , dm , react and corel draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busy in scheduiling interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion with vivek sir for the PF 1 hour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aunty discussion 30mins </t>
+  </si>
+  <si>
+    <t>31.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance checking </t>
+  </si>
+  <si>
+    <t>21.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview scheduled for 4 people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculation of salary as month end , cleared queries for Saturday salary dedction mail from the employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken the telephonic round for the people Angular , digital marketing and graphic designer </t>
+  </si>
+  <si>
+    <t>22.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken the interview for the employee scheduled on Monday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortlisting the resumes for angular and corel draw from JOB Hai , indeed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheduled the interview on Wednesday </t>
+  </si>
+  <si>
+    <t>meet with the varun , manikanta</t>
+  </si>
+  <si>
+    <t>23.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet with the varun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attended the interview for the angular with manikanta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduling for next day interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpenter work </t>
+  </si>
+  <si>
+    <t>24.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent the offer letter to varun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinated with manikanta for the interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken the telephonic round for 7 to 8 peopl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was not feeling well </t>
+  </si>
+  <si>
+    <t>25.07.2025</t>
+  </si>
+  <si>
+    <t>taken the interview for digital marketing intern</t>
+  </si>
+  <si>
+    <t>scheduled the interview for angular</t>
+  </si>
+  <si>
+    <t>26.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance for the whole week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow up the with the scheduled candidates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">calling to the new cnadidates for the scheduling the interview on Monday </t>
+  </si>
+  <si>
+    <t xml:space="preserve">posting for the jobs on linkedin , updating on naukri , indeed </t>
+  </si>
+  <si>
+    <t>27.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30mins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interview followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduled the interview , telephonic rounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coorinated with kumar for 2 rounds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">coroedinated with vishwa for 3 interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed with the vishwa about candidates who shortlisted for 2nd round </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 mins lunch break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet for dm and react developer </t>
+  </si>
+  <si>
+    <t>01.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduling the interview </t>
+  </si>
+  <si>
+    <t>corodinated with the kumar and vishwa for interviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">psoting from employes account on indeed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet with shashank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callings to the digital marketing cnadidates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with the candidates who came for the ointerview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoken with the digital marekting agency and got the number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deemart samanlu and billig </t>
+  </si>
+  <si>
+    <t>02.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9;00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">replied to old text for jobs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailed to the rejected candidates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduled interview today 3 for dm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callings for interns &amp; dm executive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callings for interns </t>
+  </si>
+  <si>
+    <t>corodinated with the vishwa for interviews</t>
+  </si>
+  <si>
+    <t>03.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">old text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">esi work </t>
+  </si>
+  <si>
+    <t>04.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepared and shared july esi sheet and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken interview for dm lead and intern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">callings and scheduled 2 interview for angular </t>
+  </si>
+  <si>
+    <t>05.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esi july month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new posting for Q Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">angular developer 1st round and telephonic round </t>
+  </si>
+  <si>
+    <t>06.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payslip for the month of july </t>
+  </si>
+  <si>
+    <t xml:space="preserve">interviews for zdm </t>
+  </si>
+  <si>
+    <t>07.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion with hruthik and gopi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephonic round for QA </t>
+  </si>
+  <si>
+    <t>08.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second round for the QA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordinated with dinesh for 1st round of interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">posted on every job portal for the qa , python , react and dm </t>
+  </si>
+  <si>
+    <t>09.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holiday </t>
+  </si>
+  <si>
+    <t>10.08.2025</t>
+  </si>
+  <si>
+    <t>11.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onboarded 4 people , 1 sr and 3 interns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephonic round for full stack and QA </t>
+  </si>
+  <si>
+    <t>12.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordianted with asif and kumar for 6 virtual interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed with dinesh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">taken the telephonic round for python </t>
+  </si>
+  <si>
+    <t>13.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taking the telephonic rounds for the python and qa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduling the meets </t>
+  </si>
+  <si>
+    <t>14.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attenmded the virtual ,meet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordinated with the vishwa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and taken the interview for Interns with mounika face to face </t>
+  </si>
+  <si>
+    <t>15.08,2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday for Independence day </t>
+  </si>
+  <si>
+    <t>16.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailed to employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGV for new employees </t>
+  </si>
+  <si>
+    <t>coordinated with dinesh for interview</t>
+  </si>
+  <si>
+    <t>scheduled DM virtual meets after taking the telephonic rouns a</t>
+  </si>
+  <si>
+    <t>17.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onboarded 2 interns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet with the DM </t>
+  </si>
+  <si>
+    <t>18.08.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co ordinatedwith the dinesh and vishwa for interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduled the interview for node js interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">posted internship for HR </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1246,8 +2075,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1320,8 +2156,32 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1370,11 +2230,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,6 +2462,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,14 +2693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="78" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2155,642 +3071,1376 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="12.5">
-      <c r="E36" s="2"/>
+      <c r="A36" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="1:5" ht="12.5">
+      <c r="A37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="12.5">
-      <c r="E38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E38" s="53"/>
     </row>
     <row r="39" spans="1:5" ht="12.5">
-      <c r="A39" t="s">
+      <c r="C39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E39" s="53"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.5">
+      <c r="C40" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="53"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.5">
+      <c r="C41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="12.5">
+      <c r="A42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="12.5">
+      <c r="C43" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.5">
+      <c r="C44" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.5">
+      <c r="A45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.5">
+      <c r="C46" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12.5">
+      <c r="C47" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.5">
+      <c r="C48" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.5">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.5">
+      <c r="C50" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12.5">
+      <c r="A51" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.5">
+      <c r="C52" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.5">
+      <c r="C53" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.5">
+      <c r="C54" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.5">
+      <c r="A55" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.5">
+      <c r="A56" t="s">
+        <v>410</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.5">
+      <c r="A57" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.5">
+      <c r="C58" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.5">
+      <c r="A59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.5">
+      <c r="C60" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.5">
+      <c r="A61" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.5">
+      <c r="C62" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12.5">
+      <c r="C63" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="12.5">
+      <c r="A64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="12.5">
+      <c r="C65" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="12.5">
+      <c r="A66" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="12.5">
+      <c r="C67" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="12.5">
+      <c r="A68" s="93" t="s">
+        <v>430</v>
+      </c>
+      <c r="B68" s="93"/>
+      <c r="C68" s="104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="12.5">
+      <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="12.5">
+      <c r="C70" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="12.5">
+      <c r="C71" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="12.5">
+      <c r="A72" s="105" t="s">
+        <v>434</v>
+      </c>
+      <c r="B72" s="105"/>
+      <c r="C72" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D72" s="105" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="12.5">
+      <c r="A73" t="s">
+        <v>437</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.5">
+      <c r="C74" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D74" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="12.5">
+      <c r="C75" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="12.5">
+      <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="12.5">
+      <c r="C77" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="12.5">
+      <c r="C78" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="12.5">
+      <c r="A79" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="12.5">
+      <c r="C80" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.5">
+      <c r="C81" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.5">
+      <c r="C82" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="12.5">
+      <c r="C83" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.5">
+      <c r="A84" t="s">
+        <v>452</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.5">
+      <c r="C85" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.5">
+      <c r="C86" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="12.5">
+      <c r="A87" s="93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="93"/>
+      <c r="C87" s="104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.5">
+      <c r="A88" t="s">
         <v>338</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B88" t="s">
         <v>339</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C88" t="s">
         <v>340</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.5">
-      <c r="A40" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="12.5">
+      <c r="C89" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.5">
+      <c r="A90" t="s">
+        <v>458</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="12.5">
+      <c r="C91" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.5">
+      <c r="A92" t="s">
+        <v>461</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.5">
+      <c r="C93" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.5">
+      <c r="C94" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="12.5">
+      <c r="C95" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.5">
+      <c r="A96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.5">
+      <c r="C97" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.5">
+      <c r="A98" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.5">
+      <c r="C99" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.5">
+      <c r="A100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" ht="12.5">
+      <c r="C101" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E101" s="53"/>
+    </row>
+    <row r="102" spans="1:5" ht="12.5">
+      <c r="C102" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.5">
+      <c r="A103" s="93" t="s">
+        <v>472</v>
+      </c>
+      <c r="B103" s="93"/>
+      <c r="C103" s="104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.5">
+      <c r="A104" t="s">
+        <v>473</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12.5">
+      <c r="C105" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12.5">
+      <c r="A106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12.5">
+      <c r="C107" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12.5">
+      <c r="C108" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12.5">
+      <c r="C109" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12.5">
+      <c r="A110" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12.5">
+      <c r="C111" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.5">
+      <c r="C112" t="s">
         <v>341</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D112" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12.5">
+      <c r="C113" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12.5">
+      <c r="C114" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12.5">
+      <c r="A115" t="s">
+        <v>488</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.5">
+      <c r="C116" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12.5">
+      <c r="C117" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="12.5">
+      <c r="A118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" ht="12.5">
+      <c r="C119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" ht="12.5">
+      <c r="C120" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="12.5">
+      <c r="C121" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E121" s="53"/>
+    </row>
+    <row r="122" spans="1:5" ht="12.5">
+      <c r="A122" t="s">
+        <v>513</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E122" s="53"/>
+    </row>
+    <row r="123" spans="1:5" ht="12.5">
+      <c r="C123" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" ht="12.5">
+      <c r="C124" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E124" s="53"/>
+    </row>
+    <row r="125" spans="1:5" ht="12.5">
+      <c r="A125" t="s">
+        <v>517</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E125" s="53"/>
+    </row>
+    <row r="126" spans="1:5" ht="12.5">
+      <c r="C126" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" ht="12.5">
+      <c r="C127" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5" ht="12.5">
+      <c r="C128" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" ht="12.5">
+      <c r="A129" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" ht="12.5">
+      <c r="C130" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" ht="12.5">
+      <c r="C131" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" ht="12.5">
+      <c r="C132" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5" ht="12.5">
+      <c r="C133" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" ht="12.5">
+      <c r="A134" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" ht="12.5">
+      <c r="C135" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" ht="12.5">
+      <c r="C136" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" ht="12.5">
+      <c r="C137" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5" ht="12.5">
+      <c r="C138" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" ht="12.5">
+      <c r="A139" t="s">
+        <v>532</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5" ht="12.5">
+      <c r="C140" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" ht="12.5">
+      <c r="C141" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" ht="12.5">
+      <c r="C142" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5" ht="12.5">
+      <c r="C143" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5" ht="12.5">
+      <c r="A144" t="s">
+        <v>535</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="12.5">
+      <c r="C145" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" ht="12.5">
+      <c r="C146" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5" ht="12.5">
+      <c r="C147" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" ht="12.5">
+      <c r="A148" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="B148" s="93"/>
+      <c r="C148" s="104" t="s">
+        <v>409</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" ht="12.5">
+      <c r="A149" t="s">
         <v>342</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C149" t="s">
+        <v>343</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" ht="12.5">
+      <c r="C150" t="s">
+        <v>344</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" ht="12.5">
+      <c r="C151" t="s">
         <v>345</v>
       </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.5">
-      <c r="A41" t="s">
-        <v>343</v>
-      </c>
-      <c r="C41" t="s">
-        <v>344</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="12.5">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="12.5">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="12.5">
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="12.5">
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="12.5">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="12.5">
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="12.5">
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" ht="12.5">
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" ht="12.5">
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5" ht="12.5">
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:5" ht="12.5">
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="5:5" ht="12.5">
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="5:5" ht="12.5">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:5" ht="12.5">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:5" ht="12.5">
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="5:5" ht="12.5">
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="5:5" ht="12.5">
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="5:5" ht="12.5">
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="5:5" ht="12.5">
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="5:5" ht="12.5">
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="5:5" ht="12.5">
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="5:5" ht="12.5">
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="5:5" ht="12.5">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" ht="12.5">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" ht="12.5">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" ht="12.5">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" ht="12.5">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" ht="12.5">
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" ht="12.5">
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" ht="12.5">
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" ht="12.5">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="5:5" ht="12.5">
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="5:5" ht="12.5">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="5:5" ht="12.5">
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="5:5" ht="12.5">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="5:5" ht="12.5">
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="5:5" ht="12.5">
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="5:5" ht="12.5">
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="5:5" ht="12.5">
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="5:5" ht="12.5">
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" ht="12.5">
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" ht="12.5">
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" ht="12.5">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="5:5" ht="12.5">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="5:5" ht="12.5">
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="5:5" ht="12.5">
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="5:5" ht="12.5">
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="5:5" ht="12.5">
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="5:5" ht="12.5">
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="5:5" ht="12.5">
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="5:5" ht="12.5">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="5:5" ht="12.5">
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="5:5" ht="12.5">
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="5:5" ht="12.5">
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="5:5" ht="12.5">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" ht="12.5">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" ht="12.5">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5" ht="12.5">
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="5:5" ht="12.5">
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="5:5" ht="12.5">
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="5:5" ht="12.5">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="5:5" ht="12.5">
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="5:5" ht="12.5">
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="5:5" ht="12.5">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="5:5" ht="12.5">
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="5:5" ht="12.5">
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="5:5" ht="12.5">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="5:5" ht="12.5">
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="5:5" ht="12.5">
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="5:5" ht="12.5">
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="5:5" ht="12.5">
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="5:5" ht="12.5">
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="5:5" ht="12.5">
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="5:5" ht="12.5">
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="5:5" ht="12.5">
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="5:5" ht="12.5">
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="5:5" ht="12.5">
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="5:5" ht="12.5">
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="5:5" ht="12.5">
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="5:5" ht="12.5">
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="5:5" ht="12.5">
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="5:5" ht="12.5">
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="5:5" ht="12.5">
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="5:5" ht="12.5">
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="5:5" ht="12.5">
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="5:5" ht="12.5">
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="5:5" ht="12.5">
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="5:5" ht="12.5">
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="5:5" ht="12.5">
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="5:5" ht="12.5">
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="5:5" ht="12.5">
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="5:5" ht="12.5">
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="5:5" ht="12.5">
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="5:5" ht="12.5">
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="5:5" ht="12.5">
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="5:5" ht="12.5">
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="5:5" ht="12.5">
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="5:5" ht="12.5">
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="5:5" ht="12.5">
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="5:5" ht="12.5">
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="5:5" ht="12.5">
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="5:5" ht="12.5">
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="5:5" ht="12.5">
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="5:5" ht="12.5">
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="5:5" ht="12.5">
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="5:5" ht="12.5">
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="5:5" ht="12.5">
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="5:5" ht="12.5">
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="5:5" ht="12.5">
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="5:5" ht="12.5">
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="5:5" ht="12.5">
+    <row r="152" spans="1:5" ht="12.5">
+      <c r="C152" t="s">
+        <v>346</v>
+      </c>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="5:5" ht="12.5">
+    <row r="153" spans="1:5" ht="12.5">
+      <c r="A153" s="95" t="s">
+        <v>383</v>
+      </c>
+      <c r="C153" s="95" t="s">
+        <v>384</v>
+      </c>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="5:5" ht="12.5">
+    <row r="154" spans="1:5" ht="12.5">
+      <c r="C154" s="95" t="s">
+        <v>385</v>
+      </c>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="5:5" ht="12.5">
+    <row r="155" spans="1:5" ht="12.5">
+      <c r="C155" s="95" t="s">
+        <v>386</v>
+      </c>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="5:5" ht="12.5">
+    <row r="156" spans="1:5" ht="12.5">
+      <c r="C156" s="95" t="s">
+        <v>387</v>
+      </c>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="5:5" ht="12.5">
+    <row r="157" spans="1:5" ht="12.5">
+      <c r="C157" s="95" t="s">
+        <v>388</v>
+      </c>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="5:5" ht="12.5">
+    <row r="158" spans="1:5" ht="12.5">
+      <c r="C158" s="95" t="s">
+        <v>389</v>
+      </c>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="5:5" ht="12.5">
+    <row r="159" spans="1:5" ht="12.5">
+      <c r="C159" s="95" t="s">
+        <v>495</v>
+      </c>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="5:5" ht="12.5">
+    <row r="160" spans="1:5" ht="12.5">
+      <c r="A160" t="s">
+        <v>496</v>
+      </c>
+      <c r="B160" t="s">
+        <v>497</v>
+      </c>
+      <c r="C160" s="95" t="s">
+        <v>345</v>
+      </c>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="5:5" ht="12.5">
+    <row r="161" spans="1:5" ht="12.5">
+      <c r="B161" t="s">
+        <v>499</v>
+      </c>
+      <c r="C161" s="95" t="s">
+        <v>500</v>
+      </c>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="5:5" ht="12.5">
+    <row r="162" spans="1:5" ht="12.5">
+      <c r="B162" t="s">
+        <v>501</v>
+      </c>
+      <c r="C162" s="95" t="s">
+        <v>502</v>
+      </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="5:5" ht="12.5">
+    <row r="163" spans="1:5" ht="12.5">
+      <c r="B163" t="s">
+        <v>503</v>
+      </c>
+      <c r="C163" s="95" t="s">
+        <v>504</v>
+      </c>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="5:5" ht="12.5">
+    <row r="164" spans="1:5" ht="12.5">
+      <c r="B164" t="s">
+        <v>505</v>
+      </c>
+      <c r="C164" s="95" t="s">
+        <v>506</v>
+      </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="5:5" ht="12.5">
+    <row r="165" spans="1:5" ht="12.5">
+      <c r="C165" s="95" t="s">
+        <v>507</v>
+      </c>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="5:5" ht="12.5">
+    <row r="166" spans="1:5" ht="12.5">
+      <c r="C166" s="95" t="s">
+        <v>508</v>
+      </c>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="5:5" ht="12.5">
+    <row r="167" spans="1:5" ht="12.5">
+      <c r="C167" s="95" t="s">
+        <v>509</v>
+      </c>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="5:5" ht="12.5">
+    <row r="168" spans="1:5" ht="12.5">
+      <c r="C168" s="95" t="s">
+        <v>510</v>
+      </c>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="5:5" ht="12.5">
+    <row r="169" spans="1:5" ht="12.5">
+      <c r="A169" t="s">
+        <v>511</v>
+      </c>
+      <c r="B169" t="s">
+        <v>541</v>
+      </c>
+      <c r="C169" s="95" t="s">
+        <v>512</v>
+      </c>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="5:5" ht="12.5">
+    <row r="170" spans="1:5" ht="12.5">
+      <c r="C170" s="95" t="s">
+        <v>542</v>
+      </c>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="5:5" ht="12.5">
+    <row r="171" spans="1:5" ht="12.5">
+      <c r="C171" s="95" t="s">
+        <v>543</v>
+      </c>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="5:5" ht="12.5">
+    <row r="172" spans="1:5" ht="12.5">
+      <c r="C172" s="95" t="s">
+        <v>544</v>
+      </c>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="5:5" ht="12.5">
+    <row r="173" spans="1:5" ht="12.5">
+      <c r="C173" s="95" t="s">
+        <v>545</v>
+      </c>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="5:5" ht="12.5">
+    <row r="174" spans="1:5" ht="12.5">
+      <c r="C174" s="95" t="s">
+        <v>546</v>
+      </c>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="5:5" ht="12.5">
+    <row r="175" spans="1:5" ht="12.5">
+      <c r="C175" s="95" t="s">
+        <v>547</v>
+      </c>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="5:5" ht="12.5">
+    <row r="176" spans="1:5" ht="12.5">
+      <c r="C176" s="95" t="s">
+        <v>548</v>
+      </c>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="5:5" ht="12.5">
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="5:5" ht="12.5">
+    <row r="177" spans="1:5" ht="12.5">
+      <c r="C177" s="95" t="s">
+        <v>552</v>
+      </c>
+      <c r="E177" s="53"/>
+    </row>
+    <row r="178" spans="1:5" ht="12.5">
+      <c r="A178" t="s">
+        <v>549</v>
+      </c>
+      <c r="C178" s="95" t="s">
+        <v>550</v>
+      </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="5:5" ht="12.5">
+    <row r="179" spans="1:5" ht="12.5">
+      <c r="C179" s="95" t="s">
+        <v>551</v>
+      </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="5:5" ht="12.5">
+    <row r="180" spans="1:5" ht="12.5">
+      <c r="C180" s="95" t="s">
+        <v>553</v>
+      </c>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="5:5" ht="12.5">
+    <row r="181" spans="1:5" ht="12.5">
+      <c r="C181" s="95" t="s">
+        <v>554</v>
+      </c>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="5:5" ht="12.5">
+    <row r="182" spans="1:5" ht="12.5">
+      <c r="C182" s="95" t="s">
+        <v>555</v>
+      </c>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="5:5" ht="12.5">
+    <row r="183" spans="1:5" ht="12.5">
+      <c r="C183" s="95" t="s">
+        <v>556</v>
+      </c>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="5:5" ht="12.5">
+    <row r="184" spans="1:5" ht="12.5">
+      <c r="C184" s="95" t="s">
+        <v>557</v>
+      </c>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="5:5" ht="12.5">
+    <row r="185" spans="1:5" ht="12.5">
+      <c r="C185" s="95" t="s">
+        <v>558</v>
+      </c>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="5:5" ht="12.5">
+    <row r="186" spans="1:5" ht="12.5">
+      <c r="C186" s="95" t="s">
+        <v>559</v>
+      </c>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="5:5" ht="12.5">
+    <row r="187" spans="1:5" ht="12.5">
+      <c r="A187" t="s">
+        <v>560</v>
+      </c>
+      <c r="B187" t="s">
+        <v>561</v>
+      </c>
+      <c r="C187" s="95" t="s">
+        <v>562</v>
+      </c>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="5:5" ht="12.5">
+    <row r="188" spans="1:5" ht="12.5">
+      <c r="C188" s="95" t="s">
+        <v>563</v>
+      </c>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="5:5" ht="12.5">
+    <row r="189" spans="1:5" ht="12.5">
+      <c r="C189" s="95" t="s">
+        <v>564</v>
+      </c>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="5:5" ht="12.5">
+    <row r="190" spans="1:5" ht="12.5">
+      <c r="C190" s="95" t="s">
+        <v>565</v>
+      </c>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="5:5" ht="12.5">
+    <row r="191" spans="1:5" ht="12.5">
+      <c r="B191" t="s">
+        <v>566</v>
+      </c>
+      <c r="C191" s="95" t="s">
+        <v>547</v>
+      </c>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="5:5" ht="12.5">
+    <row r="192" spans="1:5" ht="12.5">
+      <c r="C192" s="95" t="s">
+        <v>567</v>
+      </c>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="5:5" ht="12.5">
+    <row r="193" spans="1:5" ht="12.5">
+      <c r="C193" s="95" t="s">
+        <v>568</v>
+      </c>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="5:5" ht="12.5">
+    <row r="194" spans="1:5" ht="12.5">
+      <c r="A194" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" s="95" t="s">
+        <v>409</v>
+      </c>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="5:5" ht="12.5">
+    <row r="195" spans="1:5" ht="12.5">
+      <c r="A195" t="s">
+        <v>573</v>
+      </c>
+      <c r="C195" s="95" t="s">
+        <v>570</v>
+      </c>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="5:5" ht="12.5">
+    <row r="196" spans="1:5" ht="12.5">
+      <c r="C196" s="95" t="s">
+        <v>571</v>
+      </c>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="5:5" ht="12.5">
+    <row r="197" spans="1:5" ht="12.5">
+      <c r="B197">
+        <v>11</v>
+      </c>
+      <c r="C197" s="95" t="s">
+        <v>572</v>
+      </c>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="5:5" ht="12.5">
+    <row r="198" spans="1:5" ht="12.5">
+      <c r="C198" s="95" t="s">
+        <v>574</v>
+      </c>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="5:5" ht="12.5">
+    <row r="199" spans="1:5" ht="12.5">
+      <c r="C199" s="95" t="s">
+        <v>575</v>
+      </c>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="5:5" ht="12.5">
+    <row r="200" spans="1:5" ht="12.5">
+      <c r="C200" s="95" t="s">
+        <v>576</v>
+      </c>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="5:5" ht="12.5">
+    <row r="201" spans="1:5" ht="12.5">
+      <c r="A201" t="s">
+        <v>577</v>
+      </c>
+      <c r="C201" s="95" t="s">
+        <v>578</v>
+      </c>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="5:5" ht="12.5">
+    <row r="202" spans="1:5" ht="12.5">
+      <c r="C202" s="95" t="s">
+        <v>579</v>
+      </c>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="5:5" ht="12.5">
+    <row r="203" spans="1:5" ht="12.5">
+      <c r="C203" s="95" t="s">
+        <v>580</v>
+      </c>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="5:5" ht="12.5">
+    <row r="204" spans="1:5" ht="12.5">
+      <c r="A204" t="s">
+        <v>581</v>
+      </c>
+      <c r="C204" s="95" t="s">
+        <v>582</v>
+      </c>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="5:5" ht="12.5">
+    <row r="205" spans="1:5" ht="12.5">
+      <c r="C205" s="95" t="s">
+        <v>583</v>
+      </c>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="5:5" ht="12.5">
+    <row r="206" spans="1:5" ht="12.5">
+      <c r="A206" t="s">
+        <v>584</v>
+      </c>
+      <c r="C206" s="95" t="s">
+        <v>585</v>
+      </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="5:5" ht="12.5">
+    <row r="207" spans="1:5" ht="12.5">
+      <c r="C207" s="95" t="s">
+        <v>586</v>
+      </c>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="5:5" ht="12.5">
+    <row r="208" spans="1:5" ht="12.5">
+      <c r="A208" t="s">
+        <v>587</v>
+      </c>
+      <c r="C208" s="95" t="s">
+        <v>588</v>
+      </c>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="5:5" ht="12.5">
+    <row r="209" spans="1:5" ht="12.5">
+      <c r="C209" s="95" t="s">
+        <v>589</v>
+      </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="5:5" ht="12.5">
+    <row r="210" spans="1:5" ht="12.5">
+      <c r="C210" s="95" t="s">
+        <v>590</v>
+      </c>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="5:5" ht="12.5">
+    <row r="211" spans="1:5" ht="12.5">
+      <c r="A211" t="s">
+        <v>591</v>
+      </c>
+      <c r="C211" s="95" t="s">
+        <v>592</v>
+      </c>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="5:5" ht="12.5">
+    <row r="212" spans="1:5" ht="12.5">
+      <c r="A212" t="s">
+        <v>593</v>
+      </c>
+      <c r="C212" s="95" t="s">
+        <v>409</v>
+      </c>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="5:5" ht="12.5">
+    <row r="213" spans="1:5" ht="12.5">
+      <c r="A213" t="s">
+        <v>594</v>
+      </c>
+      <c r="C213" s="95" t="s">
+        <v>595</v>
+      </c>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="5:5" ht="12.5">
+    <row r="214" spans="1:5" ht="12.5">
+      <c r="C214" s="95" t="s">
+        <v>596</v>
+      </c>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="5:5" ht="12.5">
+    <row r="215" spans="1:5" ht="12.5">
+      <c r="A215" t="s">
+        <v>597</v>
+      </c>
+      <c r="C215" s="95" t="s">
+        <v>598</v>
+      </c>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="5:5" ht="12.5">
+    <row r="216" spans="1:5" ht="12.5">
+      <c r="C216" s="95" t="s">
+        <v>599</v>
+      </c>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="5:5" ht="12.5">
+    <row r="217" spans="1:5" ht="12.5">
+      <c r="C217" s="95" t="s">
+        <v>600</v>
+      </c>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="5:5" ht="12.5">
+    <row r="218" spans="1:5" ht="12.5">
+      <c r="A218" t="s">
+        <v>601</v>
+      </c>
+      <c r="C218" s="95" t="s">
+        <v>602</v>
+      </c>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="5:5" ht="12.5">
+    <row r="219" spans="1:5" ht="12.5">
+      <c r="C219" s="95" t="s">
+        <v>603</v>
+      </c>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="5:5" ht="12.5">
+    <row r="220" spans="1:5" ht="12.5">
+      <c r="A220" t="s">
+        <v>604</v>
+      </c>
+      <c r="C220" s="95" t="s">
+        <v>605</v>
+      </c>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="5:5" ht="12.5">
+    <row r="221" spans="1:5" ht="12.5">
+      <c r="C221" s="95" t="s">
+        <v>606</v>
+      </c>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="5:5" ht="12.5">
+    <row r="222" spans="1:5" ht="12.5">
+      <c r="C222" s="95" t="s">
+        <v>607</v>
+      </c>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="5:5" ht="12.5">
+    <row r="223" spans="1:5" ht="12.5">
+      <c r="A223" t="s">
+        <v>608</v>
+      </c>
+      <c r="C223" s="95" t="s">
+        <v>609</v>
+      </c>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="5:5" ht="12.5">
+    <row r="224" spans="1:5" ht="12.5">
+      <c r="A224" t="s">
+        <v>610</v>
+      </c>
+      <c r="C224" s="95" t="s">
+        <v>611</v>
+      </c>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="5:5" ht="12.5">
+    <row r="225" spans="1:5" ht="12.5">
+      <c r="C225" s="95" t="s">
+        <v>612</v>
+      </c>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="5:5" ht="12.5">
+    <row r="226" spans="1:5" ht="12.5">
+      <c r="C226" s="95" t="s">
+        <v>613</v>
+      </c>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="5:5" ht="12.5">
+    <row r="227" spans="1:5" ht="12.5">
+      <c r="C227" s="95" t="s">
+        <v>614</v>
+      </c>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="5:5" ht="12.5">
+    <row r="228" spans="1:5" ht="12.5">
+      <c r="A228" t="s">
+        <v>615</v>
+      </c>
+      <c r="C228" s="95" t="s">
+        <v>409</v>
+      </c>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="5:5" ht="12.5">
+    <row r="229" spans="1:5" ht="12.5">
+      <c r="A229" t="s">
+        <v>618</v>
+      </c>
+      <c r="C229" s="95" t="s">
+        <v>616</v>
+      </c>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="5:5" ht="12.5">
+    <row r="230" spans="1:5" ht="12.5">
+      <c r="C230" s="95" t="s">
+        <v>617</v>
+      </c>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="5:5" ht="12.5">
+    <row r="231" spans="1:5" ht="12.5">
+      <c r="C231" s="95" t="s">
+        <v>619</v>
+      </c>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="5:5" ht="12.5">
+    <row r="232" spans="1:5" ht="12.5">
+      <c r="C232" s="95" t="s">
+        <v>620</v>
+      </c>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="5:5" ht="12.5">
+    <row r="233" spans="1:5" ht="12.5">
+      <c r="C233" s="95" t="s">
+        <v>621</v>
+      </c>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="5:5" ht="12.5">
+    <row r="234" spans="1:5" ht="12.5">
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="5:5" ht="12.5">
+    <row r="235" spans="1:5" ht="12.5">
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="5:5" ht="12.5">
+    <row r="236" spans="1:5" ht="12.5">
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="5:5" ht="12.5">
+    <row r="237" spans="1:5" ht="12.5">
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="5:5" ht="12.5">
+    <row r="238" spans="1:5" ht="12.5">
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="5:5" ht="12.5">
+    <row r="239" spans="1:5" ht="12.5">
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="5:5" ht="12.5">
+    <row r="240" spans="1:5" ht="12.5">
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="5:5" ht="12.5">
@@ -5072,6 +6722,48 @@
     </row>
     <row r="1000" spans="5:5" ht="12.5">
       <c r="E1000" s="2"/>
+    </row>
+    <row r="1001" spans="5:5" ht="12.5">
+      <c r="E1001" s="2"/>
+    </row>
+    <row r="1002" spans="5:5" ht="12.5">
+      <c r="E1002" s="2"/>
+    </row>
+    <row r="1003" spans="5:5" ht="12.5">
+      <c r="E1003" s="2"/>
+    </row>
+    <row r="1004" spans="5:5" ht="12.5">
+      <c r="E1004" s="2"/>
+    </row>
+    <row r="1005" spans="5:5" ht="12.5">
+      <c r="E1005" s="2"/>
+    </row>
+    <row r="1006" spans="5:5" ht="12.5">
+      <c r="E1006" s="2"/>
+    </row>
+    <row r="1007" spans="5:5" ht="12.5">
+      <c r="E1007" s="2"/>
+    </row>
+    <row r="1008" spans="5:5" ht="12.5">
+      <c r="E1008" s="2"/>
+    </row>
+    <row r="1009" spans="5:5" ht="12.5">
+      <c r="E1009" s="2"/>
+    </row>
+    <row r="1010" spans="5:5" ht="12.5">
+      <c r="E1010" s="2"/>
+    </row>
+    <row r="1011" spans="5:5" ht="12.5">
+      <c r="E1011" s="2"/>
+    </row>
+    <row r="1012" spans="5:5" ht="12.5">
+      <c r="E1012" s="2"/>
+    </row>
+    <row r="1013" spans="5:5" ht="12.5">
+      <c r="E1013" s="2"/>
+    </row>
+    <row r="1014" spans="5:5" ht="12.5">
+      <c r="E1014" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5079,7 +6771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14850,7 +16542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -15217,18 +16909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.08984375" customWidth="1"/>
     <col min="11" max="11" width="24.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
@@ -15492,7 +17188,254 @@
       <c r="K32" s="88"/>
       <c r="L32" s="89"/>
     </row>
+    <row r="35" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K35" t="s">
+        <v>354</v>
+      </c>
+      <c r="L35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K36" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="90">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K37" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="L37" s="92" t="s">
+        <v>376</v>
+      </c>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+    </row>
+    <row r="38" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K38" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="P38" s="103"/>
+    </row>
+    <row r="39" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K39" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="L39" s="102" t="s">
+        <v>366</v>
+      </c>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="P39" s="103"/>
+    </row>
+    <row r="40" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K40" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="P40" s="103"/>
+    </row>
+    <row r="41" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K41" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" s="102" t="s">
+        <v>369</v>
+      </c>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="P41" s="103"/>
+    </row>
+    <row r="42" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K42" s="94" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" s="102" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+    </row>
+    <row r="43" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K43" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="L43" s="96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K44" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" s="96" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K45" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" s="98" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="11:16" ht="15.75" customHeight="1">
+      <c r="L46" s="90"/>
+    </row>
+    <row r="47" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K47" s="99" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" s="101" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="11:16" ht="15.75" customHeight="1">
+      <c r="K48" s="99" t="s">
+        <v>331</v>
+      </c>
+      <c r="L48" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" s="101" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L49" s="90"/>
+    </row>
+    <row r="50" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L50" s="90"/>
+    </row>
+    <row r="51" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L51" s="90"/>
+    </row>
+    <row r="52" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L52" s="90"/>
+    </row>
+    <row r="53" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L53" s="90"/>
+    </row>
+    <row r="54" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L54" s="90"/>
+    </row>
+    <row r="55" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L55" s="90"/>
+    </row>
+    <row r="56" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L56" s="90"/>
+    </row>
+    <row r="57" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L57" s="90"/>
+    </row>
+    <row r="58" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L58" s="90"/>
+    </row>
+    <row r="59" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L59" s="90"/>
+    </row>
+    <row r="60" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L60" s="90"/>
+    </row>
+    <row r="61" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L61" s="90"/>
+    </row>
+    <row r="62" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L62" s="90"/>
+    </row>
+    <row r="63" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L63" s="90"/>
+    </row>
+    <row r="64" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L64" s="90"/>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L65" s="90"/>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L66" s="90"/>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L67" s="90"/>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L68" s="90"/>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L69" s="90"/>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L70" s="90"/>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L71" s="90"/>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L72" s="90"/>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L73" s="90"/>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L74" s="90"/>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L75" s="90"/>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L76" s="90"/>
+    </row>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L77" s="90"/>
+    </row>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L78" s="90"/>
+    </row>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L79" s="90"/>
+    </row>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L80" s="90"/>
+    </row>
+    <row r="81" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L81" s="90"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>